--- a/data_voor_swing/gebiedsdefinities/provincie2024.xlsx
+++ b/data_voor_swing/gebiedsdefinities/provincie2024.xlsx
@@ -1,71 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\gebiedsdefinities\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F81B1F-8726-4329-AC77-3F34116F1353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr showObjects="all" updateLinks="userSet" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1245" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="provincie2024" sheetId="1" r:id="rId1"/>
+    <sheet name="provincie2024" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="auto" refMode="A1" iterateCount="100"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
-  <si>
-    <t>Antwerpen (Prov.)</t>
-  </si>
-  <si>
-    <t>Brussels Hoofdstedelijk Gewest</t>
-  </si>
-  <si>
-    <t>Limburg</t>
-  </si>
-  <si>
-    <t>Oost-Vlaanderen</t>
-  </si>
-  <si>
-    <t>Vlaams-Brabant</t>
-  </si>
-  <si>
-    <t>West-Vlaanderen</t>
-  </si>
-  <si>
-    <t>Buiten Vlaanderen en Brussel</t>
-  </si>
-  <si>
-    <t>Niet te lokaliseren</t>
-  </si>
-  <si>
-    <t>provincie onbekend (Vlaanderen)</t>
-  </si>
-  <si>
-    <t>volgnr</t>
-  </si>
-  <si>
-    <t>gebiedscode</t>
-  </si>
-  <si>
-    <t>naam_kort</t>
-  </si>
-  <si>
-    <t>naam</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="17">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,30 +63,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -189,7 +172,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -224,10 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,153 +381,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="0" outlineLevel="0">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>volgnr</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gebiedscode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>naam_kort</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>naam</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="0" outlineLevel="0">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>10000</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Antwerpen (Prov.)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Antwerpen (Prov.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="0" outlineLevel="0">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>4000</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Brussels Hoofdstedelijk Gewest</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Brussels Hoofdstedelijk Gewest</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="0" outlineLevel="0">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23">
+        <v>70000</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Limburg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Limburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="0" outlineLevel="0">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23">
+        <v>40000</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Oost-Vlaanderen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Oost-Vlaanderen</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="0" outlineLevel="0">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23">
+        <v>20001</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vlaams-Brabant</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vlaams-Brabant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="0" outlineLevel="0">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23">
+        <v>30000</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>West-Vlaanderen</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>West-Vlaanderen</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="0" outlineLevel="0">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>99999</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Buiten Vlaanderen en Brussel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Buiten Vlaanderen en Brussel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="0" outlineLevel="0">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23">
+        <v>99993</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Niet te lokaliseren</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="0" outlineLevel="0">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>70000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>40000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>99999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>99993</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B10" s="23">
         <v>99991</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>provincie onbekend (Vlaanderen)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>provincie onbekend (Vlaanderen)</t>
+        </is>
       </c>
     </row>
   </sheetData>
